--- a/docs/Store/templates/Order.xlsx
+++ b/docs/Store/templates/Order.xlsx
@@ -19,7 +19,7 @@
     <t/>
   </si>
   <si>
-    <t>orders</t>
+    <t>order_orders_table</t>
   </si>
   <si>
     <t>Order</t>
@@ -91,7 +91,7 @@
     <t>Insert Statement</t>
   </si>
   <si>
-    <t>order_lines</t>
+    <t>order_order_lines_table</t>
   </si>
   <si>
     <t>Order line</t>
@@ -112,7 +112,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>items</t>
+    <t>order_items_table</t>
   </si>
   <si>
     <t>Item</t>

--- a/docs/Store/templates/Order.xlsx
+++ b/docs/Store/templates/Order.xlsx
@@ -305,85 +305,85 @@
     </row>
     <row r="5">
       <c r="N5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&AA5&") VALUES ("&AN5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&AA5&") VALUES ("&AN5&");" ]]></f>
       </c>
       <c r="O5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="Z5">
-        <f><![CDATA[Y5&IF(AND(Y5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  Y5&IF(AND(Y5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="AA5">
-        <f><![CDATA[Z5&IF(AND(Z5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","")]]></f>
+        <f><![CDATA[  Z5&IF(AND(Z5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
       </c>
       <c r="AB5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",B5<>""),", ","")&IF(B5<>"","'"&B5&"'","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",C5<>""),", ","")&IF(C5<>"","'"&C5&"'","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
       </c>
       <c r="AE5">
-        <f>AD5&amp;IF(AND(AD5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"")</f>
+        <f>  AD5&amp;IF(AND(AD5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"") </f>
       </c>
       <c r="AF5">
-        <f>AE5&amp;IF(AND(AE5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"")</f>
+        <f>  AE5&amp;IF(AND(AE5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"") </f>
       </c>
       <c r="AG5">
-        <f><![CDATA[AF5&IF(AND(AF5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  AF5&IF(AND(AF5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="AH5">
-        <f><![CDATA[AG5&IF(AND(AG5<>"",G5<>""),", ","")&IF(G5<>"","'"&G5&"'","")]]></f>
+        <f><![CDATA[  AG5&IF(AND(AG5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",H5<>""),", ","")&IF(H5<>"","'"&H5&"'","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",J5<>""),", ","")&IF(J5<>"","'"&J5&"'","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",J5<>""),", ","")&IF(J5<>"", "'"&J5&"'" ,"") ]]></f>
       </c>
       <c r="AL5">
-        <f><![CDATA[AK5&IF(AND(AK5<>"",K5<>""),", ","")&IF(K5<>"","'"&TEXT(K5,"YYYY-MM-DD")&" "&TEXT(K5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AK5&IF(AND(AK5<>"",K5<>""),", ","")&IF(K5<>"", "'"&TEXT(K5,"YYYY-MM-DD")&" "&TEXT(K5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AM5">
-        <f><![CDATA[AL5&IF(AND(AL5<>"",L5<>""),", ","")&IF(L5<>"","'"&L5&"'","")]]></f>
+        <f><![CDATA[  AL5&IF(AND(AL5<>"",L5<>""),", ","")&IF(L5<>"", "'"&L5&"'" ,"") ]]></f>
       </c>
       <c r="AN5">
-        <f><![CDATA[AM5&IF(AND(AM5<>"",M5<>""),", ","")&IF(M5<>"","'"&TEXT(M5,"YYYY-MM-DD")&" "&TEXT(M5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AM5&IF(AND(AM5<>"",M5<>""),", ","")&IF(M5<>"", "'"&TEXT(M5,"YYYY-MM-DD")&" "&TEXT(M5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -529,79 +529,79 @@
     </row>
     <row r="5">
       <c r="M5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&Y5&") VALUES ("&AK5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&Y5&") VALUES ("&AK5&");" ]]></f>
       </c>
       <c r="N5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="P5">
-        <f><![CDATA[O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="Q5">
-        <f><![CDATA[P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="R5">
-        <f><![CDATA[Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
       </c>
       <c r="W5">
-        <f><![CDATA[V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","")]]></f>
+        <f><![CDATA[  V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
       </c>
       <c r="X5">
-        <f><![CDATA[W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","")]]></f>
+        <f><![CDATA[  W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
       </c>
       <c r="Y5">
-        <f><![CDATA[X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","")]]></f>
+        <f><![CDATA[  X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
       </c>
       <c r="Z5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="AA5">
-        <f>Z5&amp;IF(AND(Z5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"")</f>
+        <f>  Z5&amp;IF(AND(Z5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"") </f>
       </c>
       <c r="AB5">
-        <f>AA5&amp;IF(AND(AA5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"")</f>
+        <f>  AA5&amp;IF(AND(AA5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"") </f>
       </c>
       <c r="AC5">
-        <f><![CDATA[AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="AD5">
-        <f><![CDATA[AC5&IF(AND(AC5<>"",E5<>""),", ","")&IF(E5<>"","'"&E5&"'","")]]></f>
+        <f><![CDATA[  AC5&IF(AND(AC5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
       </c>
       <c r="AE5">
-        <f><![CDATA[AD5&IF(AND(AD5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  AD5&IF(AND(AD5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="AF5">
-        <f>AE5&amp;IF(AND(AE5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"")</f>
+        <f>  AE5&amp;IF(AND(AE5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"") </f>
       </c>
       <c r="AG5">
-        <f>AF5&amp;IF(AND(AF5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"")</f>
+        <f>  AF5&amp;IF(AND(AF5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"") </f>
       </c>
       <c r="AH5">
-        <f><![CDATA[AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"","'"&I5&"'","")]]></f>
+        <f><![CDATA[  AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
       </c>
       <c r="AI5">
-        <f><![CDATA[AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"","'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="AJ5">
-        <f><![CDATA[AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"","'"&K5&"'","")]]></f>
+        <f><![CDATA[  AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
       </c>
       <c r="AK5">
-        <f><![CDATA[AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"","'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -702,49 +702,49 @@
     </row>
     <row r="5">
       <c r="H5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&O5&") VALUES ("&V5&");"]]></f>
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&O5&") VALUES ("&V5&");" ]]></f>
       </c>
       <c r="I5">
         <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
       </c>
       <c r="J5">
-        <f><![CDATA[I5&IF(AND(I5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","")]]></f>
+        <f><![CDATA[  I5&IF(AND(I5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
       </c>
       <c r="K5">
-        <f><![CDATA[J5&IF(AND(J5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","")]]></f>
+        <f><![CDATA[  J5&IF(AND(J5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
       </c>
       <c r="L5">
-        <f><![CDATA[K5&IF(AND(K5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","")]]></f>
+        <f><![CDATA[  K5&IF(AND(K5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
       </c>
       <c r="M5">
-        <f><![CDATA[L5&IF(AND(L5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","")]]></f>
+        <f><![CDATA[  L5&IF(AND(L5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
       </c>
       <c r="N5">
-        <f><![CDATA[M5&IF(AND(M5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","")]]></f>
+        <f><![CDATA[  M5&IF(AND(M5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
       </c>
       <c r="O5">
-        <f><![CDATA[N5&IF(AND(N5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","")]]></f>
+        <f><![CDATA[  N5&IF(AND(N5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
       </c>
       <c r="P5">
         <f>IF(A5&lt;&gt;"",A5,"")</f>
       </c>
       <c r="Q5">
-        <f>P5&amp;IF(AND(P5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"")</f>
+        <f>  P5&amp;IF(AND(P5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"") </f>
       </c>
       <c r="R5">
-        <f>Q5&amp;IF(AND(Q5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"")</f>
+        <f>  Q5&amp;IF(AND(Q5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"") </f>
       </c>
       <c r="S5">
-        <f><![CDATA[R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"","'"&D5&"'","")]]></f>
+        <f><![CDATA[  R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
       </c>
       <c r="T5">
-        <f><![CDATA[S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"","'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
       <c r="U5">
-        <f><![CDATA[T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"","'"&F5&"'","")]]></f>
+        <f><![CDATA[  T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
       </c>
       <c r="V5">
-        <f><![CDATA[U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"","'"&TEXT(G5,"YYYY-MM-DD")&" "&TEXT(G5,"HH:mm:ss")&"'","")]]></f>
+        <f><![CDATA[  U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"", "'"&TEXT(G5,"YYYY-MM-DD")&" "&TEXT(G5,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>

--- a/docs/Store/templates/Order.xlsx
+++ b/docs/Store/templates/Order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t/>
   </si>
@@ -25,66 +25,105 @@
     <t>Order</t>
   </si>
   <si>
+    <t>Order Id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
     <t>integer, PK, NN, INC</t>
   </si>
   <si>
+    <t>Order name</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
     <t>varchar(100), NN</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
+    <t>Client Id</t>
+  </si>
+  <si>
     <t>client_id</t>
   </si>
   <si>
     <t>integer, NN</t>
   </si>
   <si>
+    <t>Delivery address</t>
+  </si>
+  <si>
     <t>delivery_address_id</t>
   </si>
   <si>
+    <t>Order status</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>order_status, NN</t>
   </si>
   <si>
+    <t>Promotion Id</t>
+  </si>
+  <si>
     <t>promotion_id</t>
   </si>
   <si>
     <t>varchar(10)</t>
   </si>
   <si>
+    <t>Segment Id</t>
+  </si>
+  <si>
     <t>segment_id</t>
   </si>
   <si>
+    <t>Business Area Id</t>
+  </si>
+  <si>
     <t>business_area_id</t>
   </si>
   <si>
+    <t>User created record</t>
+  </si>
+  <si>
     <t>created_by</t>
   </si>
   <si>
     <t>varchar(10), NN</t>
   </si>
   <si>
+    <t>Timestamp of record create</t>
+  </si>
+  <si>
     <t>created_at</t>
   </si>
   <si>
     <t>timestamptz, NN</t>
   </si>
   <si>
+    <t>User updated record</t>
+  </si>
+  <si>
     <t>updated_by</t>
   </si>
   <si>
+    <t>Timestamp of record update</t>
+  </si>
+  <si>
     <t>updated_at</t>
   </si>
   <si>
@@ -97,16 +136,28 @@
     <t>Order line</t>
   </si>
   <si>
+    <t>OrderLine Id</t>
+  </si>
+  <si>
     <t>order_id</t>
   </si>
   <si>
+    <t>Item Id</t>
+  </si>
+  <si>
     <t>item_id</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
     <t>decimal(10,2), NN</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
   <si>
     <t>quantity</t>
@@ -160,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN5"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -218,7 +269,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -226,40 +277,40 @@
         <v>3</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -267,123 +318,164 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s" s="0">
+      <c r="C5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="K4" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="N5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&AA5&") VALUES ("&AN5&");" ]]></f>
-      </c>
-      <c r="O5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f><![CDATA[  Y5&IF(AND(Y5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="AA5">
-        <f><![CDATA[  Z5&IF(AND(Z5<>"",M5<>""),", ","")&IF(M5<>"",""""&M$3&"""","") ]]></f>
-      </c>
-      <c r="AB5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",B5<>""),", ","")&IF(B5<>"", "'"&B5&"'" ,"") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",C5<>""),", ","")&IF(C5<>"", "'"&C5&"'" ,"") ]]></f>
-      </c>
-      <c r="AE5">
-        <f>  AD5&amp;IF(AND(AD5&lt;&gt;"",D5&lt;&gt;""),", ","")&amp;IF(D5&lt;&gt;"",D5,"") </f>
-      </c>
-      <c r="AF5">
-        <f>  AE5&amp;IF(AND(AE5&lt;&gt;"",E5&lt;&gt;""),", ","")&amp;IF(E5&lt;&gt;"",E5,"") </f>
-      </c>
-      <c r="AG5">
-        <f><![CDATA[  AF5&IF(AND(AF5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="AH5">
-        <f><![CDATA[  AG5&IF(AND(AG5<>"",G5<>""),", ","")&IF(G5<>"", "'"&G5&"'" ,"") ]]></f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",H5<>""),", ","")&IF(H5<>"", "'"&H5&"'" ,"") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",J5<>""),", ","")&IF(J5<>"", "'"&J5&"'" ,"") ]]></f>
-      </c>
-      <c r="AL5">
-        <f><![CDATA[  AK5&IF(AND(AK5<>"",K5<>""),", ","")&IF(K5<>"", "'"&TEXT(K5,"YYYY-MM-DD")&" "&TEXT(K5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AM5">
-        <f><![CDATA[  AL5&IF(AND(AL5<>"",L5<>""),", ","")&IF(L5<>"", "'"&L5&"'" ,"") ]]></f>
-      </c>
-      <c r="AN5">
-        <f><![CDATA[  AM5&IF(AND(AM5<>"",M5<>""),", ","")&IF(M5<>"", "'"&TEXT(M5,"YYYY-MM-DD")&" "&TEXT(M5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="G5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="N6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&AA6&") VALUES ("&AN6&");" ]]></f>
+      </c>
+      <c r="O6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f><![CDATA[  Y6&IF(AND(Y6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="AA6">
+        <f><![CDATA[  Z6&IF(AND(Z6<>"",M6<>""),", ","")&IF(M6<>"",""""&M$4&"""","") ]]></f>
+      </c>
+      <c r="AB6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",B6<>""),", ","")&IF(B6<>"", "'"&B6&"'" ,"") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",C6<>""),", ","")&IF(C6<>"", "'"&C6&"'" ,"") ]]></f>
+      </c>
+      <c r="AE6">
+        <f>  AD6&amp;IF(AND(AD6&lt;&gt;"",D6&lt;&gt;""),", ","")&amp;IF(D6&lt;&gt;"",D6,"") </f>
+      </c>
+      <c r="AF6">
+        <f>  AE6&amp;IF(AND(AE6&lt;&gt;"",E6&lt;&gt;""),", ","")&amp;IF(E6&lt;&gt;"",E6,"") </f>
+      </c>
+      <c r="AG6">
+        <f><![CDATA[  AF6&IF(AND(AF6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="AH6">
+        <f><![CDATA[  AG6&IF(AND(AG6<>"",G6<>""),", ","")&IF(G6<>"", "'"&G6&"'" ,"") ]]></f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",H6<>""),", ","")&IF(H6<>"", "'"&H6&"'" ,"") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",J6<>""),", ","")&IF(J6<>"", "'"&J6&"'" ,"") ]]></f>
+      </c>
+      <c r="AL6">
+        <f><![CDATA[  AK6&IF(AND(AK6<>"",K6<>""),", ","")&IF(K6<>"", "'"&TEXT(K6,"YYYY-MM-DD")&" "&TEXT(K6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AM6">
+        <f><![CDATA[  AL6&IF(AND(AL6<>"",L6<>""),", ","")&IF(L6<>"", "'"&L6&"'" ,"") ]]></f>
+      </c>
+      <c r="AN6">
+        <f><![CDATA[  AM6&IF(AND(AM6<>"",M6<>""),", ","")&IF(M6<>"", "'"&TEXT(M6,"YYYY-MM-DD")&" "&TEXT(M6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -393,7 +485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -448,45 +540,45 @@
         <v>0</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="C3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="J3" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -494,114 +586,152 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="M5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&Y5&") VALUES ("&AK5&");" ]]></f>
-      </c>
-      <c r="N5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f><![CDATA[  O5&IF(AND(O5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="Q5">
-        <f><![CDATA[  P5&IF(AND(P5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="R5">
-        <f><![CDATA[  Q5&IF(AND(Q5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",H5<>""),", ","")&IF(H5<>"",""""&H$3&"""","") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",I5<>""),", ","")&IF(I5<>"",""""&I$3&"""","") ]]></f>
-      </c>
-      <c r="W5">
-        <f><![CDATA[  V5&IF(AND(V5<>"",J5<>""),", ","")&IF(J5<>"",""""&J$3&"""","") ]]></f>
-      </c>
-      <c r="X5">
-        <f><![CDATA[  W5&IF(AND(W5<>"",K5<>""),", ","")&IF(K5<>"",""""&K$3&"""","") ]]></f>
-      </c>
-      <c r="Y5">
-        <f><![CDATA[  X5&IF(AND(X5<>"",L5<>""),", ","")&IF(L5<>"",""""&L$3&"""","") ]]></f>
-      </c>
-      <c r="Z5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="AA5">
-        <f>  Z5&amp;IF(AND(Z5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"") </f>
-      </c>
-      <c r="AB5">
-        <f>  AA5&amp;IF(AND(AA5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"") </f>
-      </c>
-      <c r="AC5">
-        <f><![CDATA[  AB5&IF(AND(AB5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="AD5">
-        <f><![CDATA[  AC5&IF(AND(AC5<>"",E5<>""),", ","")&IF(E5<>"", "'"&E5&"'" ,"") ]]></f>
-      </c>
-      <c r="AE5">
-        <f><![CDATA[  AD5&IF(AND(AD5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="AF5">
-        <f>  AE5&amp;IF(AND(AE5&lt;&gt;"",G5&lt;&gt;""),", ","")&amp;IF(G5&lt;&gt;"",G5,"") </f>
-      </c>
-      <c r="AG5">
-        <f>  AF5&amp;IF(AND(AF5&lt;&gt;"",H5&lt;&gt;""),", ","")&amp;IF(H5&lt;&gt;"",H5,"") </f>
-      </c>
-      <c r="AH5">
-        <f><![CDATA[  AG5&IF(AND(AG5<>"",I5<>""),", ","")&IF(I5<>"", "'"&I5&"'" ,"") ]]></f>
-      </c>
-      <c r="AI5">
-        <f><![CDATA[  AH5&IF(AND(AH5<>"",J5<>""),", ","")&IF(J5<>"", "'"&TEXT(J5,"YYYY-MM-DD")&" "&TEXT(J5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="AJ5">
-        <f><![CDATA[  AI5&IF(AND(AI5<>"",K5<>""),", ","")&IF(K5<>"", "'"&K5&"'" ,"") ]]></f>
-      </c>
-      <c r="AK5">
-        <f><![CDATA[  AJ5&IF(AND(AJ5<>"",L5<>""),", ","")&IF(L5<>"", "'"&TEXT(L5,"YYYY-MM-DD")&" "&TEXT(L5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="M6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&Y6&") VALUES ("&AK6&");" ]]></f>
+      </c>
+      <c r="N6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f><![CDATA[  O6&IF(AND(O6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="Q6">
+        <f><![CDATA[  P6&IF(AND(P6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="R6">
+        <f><![CDATA[  Q6&IF(AND(Q6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",H6<>""),", ","")&IF(H6<>"",""""&H$4&"""","") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",I6<>""),", ","")&IF(I6<>"",""""&I$4&"""","") ]]></f>
+      </c>
+      <c r="W6">
+        <f><![CDATA[  V6&IF(AND(V6<>"",J6<>""),", ","")&IF(J6<>"",""""&J$4&"""","") ]]></f>
+      </c>
+      <c r="X6">
+        <f><![CDATA[  W6&IF(AND(W6<>"",K6<>""),", ","")&IF(K6<>"",""""&K$4&"""","") ]]></f>
+      </c>
+      <c r="Y6">
+        <f><![CDATA[  X6&IF(AND(X6<>"",L6<>""),", ","")&IF(L6<>"",""""&L$4&"""","") ]]></f>
+      </c>
+      <c r="Z6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="AA6">
+        <f>  Z6&amp;IF(AND(Z6&lt;&gt;"",B6&lt;&gt;""),", ","")&amp;IF(B6&lt;&gt;"",B6,"") </f>
+      </c>
+      <c r="AB6">
+        <f>  AA6&amp;IF(AND(AA6&lt;&gt;"",C6&lt;&gt;""),", ","")&amp;IF(C6&lt;&gt;"",C6,"") </f>
+      </c>
+      <c r="AC6">
+        <f><![CDATA[  AB6&IF(AND(AB6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="AD6">
+        <f><![CDATA[  AC6&IF(AND(AC6<>"",E6<>""),", ","")&IF(E6<>"", "'"&E6&"'" ,"") ]]></f>
+      </c>
+      <c r="AE6">
+        <f><![CDATA[  AD6&IF(AND(AD6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="AF6">
+        <f>  AE6&amp;IF(AND(AE6&lt;&gt;"",G6&lt;&gt;""),", ","")&amp;IF(G6&lt;&gt;"",G6,"") </f>
+      </c>
+      <c r="AG6">
+        <f>  AF6&amp;IF(AND(AF6&lt;&gt;"",H6&lt;&gt;""),", ","")&amp;IF(H6&lt;&gt;"",H6,"") </f>
+      </c>
+      <c r="AH6">
+        <f><![CDATA[  AG6&IF(AND(AG6<>"",I6<>""),", ","")&IF(I6<>"", "'"&I6&"'" ,"") ]]></f>
+      </c>
+      <c r="AI6">
+        <f><![CDATA[  AH6&IF(AND(AH6<>"",J6<>""),", ","")&IF(J6<>"", "'"&TEXT(J6,"YYYY-MM-DD")&" "&TEXT(J6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="AJ6">
+        <f><![CDATA[  AI6&IF(AND(AI6<>"",K6<>""),", ","")&IF(K6<>"", "'"&K6&"'" ,"") ]]></f>
+      </c>
+      <c r="AK6">
+        <f><![CDATA[  AJ6&IF(AND(AJ6<>"",L6<>""),", ","")&IF(L6<>"", "'"&TEXT(L6,"YYYY-MM-DD")&" "&TEXT(L6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
@@ -611,7 +741,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -651,30 +781,30 @@
         <v>0</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -682,69 +812,92 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
-      <c r="H5" s="0">
-        <f><![CDATA["INSERT INTO """&B$1&""" ("&O5&") VALUES ("&V5&");" ]]></f>
-      </c>
-      <c r="I5">
-        <f>IF(A5&lt;&gt;"",""""&amp;A$3&amp;"""","")</f>
-      </c>
-      <c r="J5">
-        <f><![CDATA[  I5&IF(AND(I5<>"",B5<>""),", ","")&IF(B5<>"",""""&B$3&"""","") ]]></f>
-      </c>
-      <c r="K5">
-        <f><![CDATA[  J5&IF(AND(J5<>"",C5<>""),", ","")&IF(C5<>"",""""&C$3&"""","") ]]></f>
-      </c>
-      <c r="L5">
-        <f><![CDATA[  K5&IF(AND(K5<>"",D5<>""),", ","")&IF(D5<>"",""""&D$3&"""","") ]]></f>
-      </c>
-      <c r="M5">
-        <f><![CDATA[  L5&IF(AND(L5<>"",E5<>""),", ","")&IF(E5<>"",""""&E$3&"""","") ]]></f>
-      </c>
-      <c r="N5">
-        <f><![CDATA[  M5&IF(AND(M5<>"",F5<>""),", ","")&IF(F5<>"",""""&F$3&"""","") ]]></f>
-      </c>
-      <c r="O5">
-        <f><![CDATA[  N5&IF(AND(N5<>"",G5<>""),", ","")&IF(G5<>"",""""&G$3&"""","") ]]></f>
-      </c>
-      <c r="P5">
-        <f>IF(A5&lt;&gt;"",A5,"")</f>
-      </c>
-      <c r="Q5">
-        <f>  P5&amp;IF(AND(P5&lt;&gt;"",B5&lt;&gt;""),", ","")&amp;IF(B5&lt;&gt;"",B5,"") </f>
-      </c>
-      <c r="R5">
-        <f>  Q5&amp;IF(AND(Q5&lt;&gt;"",C5&lt;&gt;""),", ","")&amp;IF(C5&lt;&gt;"",C5,"") </f>
-      </c>
-      <c r="S5">
-        <f><![CDATA[  R5&IF(AND(R5<>"",D5<>""),", ","")&IF(D5<>"", "'"&D5&"'" ,"") ]]></f>
-      </c>
-      <c r="T5">
-        <f><![CDATA[  S5&IF(AND(S5<>"",E5<>""),", ","")&IF(E5<>"", "'"&TEXT(E5,"YYYY-MM-DD")&" "&TEXT(E5,"HH:mm:ss")&"'" ,"") ]]></f>
-      </c>
-      <c r="U5">
-        <f><![CDATA[  T5&IF(AND(T5<>"",F5<>""),", ","")&IF(F5<>"", "'"&F5&"'" ,"") ]]></f>
-      </c>
-      <c r="V5">
-        <f><![CDATA[  U5&IF(AND(U5<>"",G5<>""),", ","")&IF(G5<>"", "'"&TEXT(G5,"YYYY-MM-DD")&" "&TEXT(G5,"HH:mm:ss")&"'" ,"") ]]></f>
+      <c r="A5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="H6" s="0">
+        <f><![CDATA["INSERT INTO """&B$1&""" ("&O6&") VALUES ("&V6&");" ]]></f>
+      </c>
+      <c r="I6">
+        <f>IF(A6&lt;&gt;"",""""&amp;A$4&amp;"""","")</f>
+      </c>
+      <c r="J6">
+        <f><![CDATA[  I6&IF(AND(I6<>"",B6<>""),", ","")&IF(B6<>"",""""&B$4&"""","") ]]></f>
+      </c>
+      <c r="K6">
+        <f><![CDATA[  J6&IF(AND(J6<>"",C6<>""),", ","")&IF(C6<>"",""""&C$4&"""","") ]]></f>
+      </c>
+      <c r="L6">
+        <f><![CDATA[  K6&IF(AND(K6<>"",D6<>""),", ","")&IF(D6<>"",""""&D$4&"""","") ]]></f>
+      </c>
+      <c r="M6">
+        <f><![CDATA[  L6&IF(AND(L6<>"",E6<>""),", ","")&IF(E6<>"",""""&E$4&"""","") ]]></f>
+      </c>
+      <c r="N6">
+        <f><![CDATA[  M6&IF(AND(M6<>"",F6<>""),", ","")&IF(F6<>"",""""&F$4&"""","") ]]></f>
+      </c>
+      <c r="O6">
+        <f><![CDATA[  N6&IF(AND(N6<>"",G6<>""),", ","")&IF(G6<>"",""""&G$4&"""","") ]]></f>
+      </c>
+      <c r="P6">
+        <f>IF(A6&lt;&gt;"",A6,"")</f>
+      </c>
+      <c r="Q6">
+        <f>  P6&amp;IF(AND(P6&lt;&gt;"",B6&lt;&gt;""),", ","")&amp;IF(B6&lt;&gt;"",B6,"") </f>
+      </c>
+      <c r="R6">
+        <f>  Q6&amp;IF(AND(Q6&lt;&gt;"",C6&lt;&gt;""),", ","")&amp;IF(C6&lt;&gt;"",C6,"") </f>
+      </c>
+      <c r="S6">
+        <f><![CDATA[  R6&IF(AND(R6<>"",D6<>""),", ","")&IF(D6<>"", "'"&D6&"'" ,"") ]]></f>
+      </c>
+      <c r="T6">
+        <f><![CDATA[  S6&IF(AND(S6<>"",E6<>""),", ","")&IF(E6<>"", "'"&TEXT(E6,"YYYY-MM-DD")&" "&TEXT(E6,"HH:mm:ss")&"'" ,"") ]]></f>
+      </c>
+      <c r="U6">
+        <f><![CDATA[  T6&IF(AND(T6<>"",F6<>""),", ","")&IF(F6<>"", "'"&F6&"'" ,"") ]]></f>
+      </c>
+      <c r="V6">
+        <f><![CDATA[  U6&IF(AND(U6<>"",G6<>""),", ","")&IF(G6<>"", "'"&TEXT(G6,"YYYY-MM-DD")&" "&TEXT(G6,"HH:mm:ss")&"'" ,"") ]]></f>
       </c>
     </row>
   </sheetData>
